--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H2">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>483.867434808268</v>
+        <v>931.131375463926</v>
       </c>
       <c r="R2">
-        <v>4354.806913274412</v>
+        <v>8380.182379175334</v>
       </c>
       <c r="S2">
-        <v>0.1005434803539962</v>
+        <v>0.1294058722450074</v>
       </c>
       <c r="T2">
-        <v>0.1005434803539962</v>
+        <v>0.1294058722450074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H3">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>86.040174753648</v>
+        <v>72.670010428008</v>
       </c>
       <c r="R3">
-        <v>774.361572782832</v>
+        <v>654.030093852072</v>
       </c>
       <c r="S3">
-        <v>0.01787840635199116</v>
+        <v>0.01009946215248601</v>
       </c>
       <c r="T3">
-        <v>0.01787840635199116</v>
+        <v>0.01009946215248601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H4">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>213.5516432909604</v>
+        <v>136.598066212748</v>
       </c>
       <c r="R4">
-        <v>1921.964789618644</v>
+        <v>1229.382595914732</v>
       </c>
       <c r="S4">
-        <v>0.04437418992723955</v>
+        <v>0.01898399342029986</v>
       </c>
       <c r="T4">
-        <v>0.04437418992723954</v>
+        <v>0.01898399342029986</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H5">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>2.392246859748445</v>
+        <v>8.113755127898001</v>
       </c>
       <c r="R5">
-        <v>21.530221737736</v>
+        <v>73.02379615108201</v>
       </c>
       <c r="S5">
-        <v>0.0004970882680714699</v>
+        <v>0.001127625582356633</v>
       </c>
       <c r="T5">
-        <v>0.0004970882680714699</v>
+        <v>0.001127625582356633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>1065.021026833302</v>
+        <v>2426.547572740434</v>
       </c>
       <c r="R6">
-        <v>9585.189241499718</v>
+        <v>21838.92815466391</v>
       </c>
       <c r="S6">
-        <v>0.2213021852368256</v>
+        <v>0.3372343725803779</v>
       </c>
       <c r="T6">
-        <v>0.2213021852368256</v>
+        <v>0.337234372580378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
         <v>189.379546282872</v>
@@ -883,10 +883,10 @@
         <v>1704.415916545848</v>
       </c>
       <c r="S7">
-        <v>0.0393514366154556</v>
+        <v>0.02631940671088281</v>
       </c>
       <c r="T7">
-        <v>0.03935143661545561</v>
+        <v>0.02631940671088282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>470.0398788147406</v>
+        <v>355.9773784278653</v>
       </c>
       <c r="R8">
-        <v>4230.358909332666</v>
+        <v>3203.796405850788</v>
       </c>
       <c r="S8">
-        <v>0.09767023345956552</v>
+        <v>0.04947267847353691</v>
       </c>
       <c r="T8">
-        <v>0.09767023345956551</v>
+        <v>0.04947267847353692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>5.265477739822667</v>
+        <v>21.14461324171534</v>
       </c>
       <c r="R9">
-        <v>47.389299658404</v>
+        <v>190.301519175438</v>
       </c>
       <c r="S9">
-        <v>0.001094120867832411</v>
+        <v>0.002938615529375977</v>
       </c>
       <c r="T9">
-        <v>0.001094120867832411</v>
+        <v>0.002938615529375977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H10">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>541.1536750589759</v>
+        <v>1209.200123634685</v>
       </c>
       <c r="R10">
-        <v>4870.383075530784</v>
+        <v>10882.80111271216</v>
       </c>
       <c r="S10">
-        <v>0.1124470670739491</v>
+        <v>0.1680510407457314</v>
       </c>
       <c r="T10">
-        <v>0.1124470670739491</v>
+        <v>0.1680510407457314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H11">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>96.22667991513597</v>
+        <v>94.37184473597999</v>
       </c>
       <c r="R11">
-        <v>866.0401192362239</v>
+        <v>849.3466026238199</v>
       </c>
       <c r="S11">
-        <v>0.01999507428188766</v>
+        <v>0.01311551861019104</v>
       </c>
       <c r="T11">
-        <v>0.01999507428188766</v>
+        <v>0.01311551861019104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H12">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>238.834540761312</v>
+        <v>177.3910781069077</v>
       </c>
       <c r="R12">
-        <v>2149.510866851808</v>
+        <v>1596.51970296217</v>
       </c>
       <c r="S12">
-        <v>0.04962775799616666</v>
+        <v>0.02465328502056901</v>
       </c>
       <c r="T12">
-        <v>0.04962775799616666</v>
+        <v>0.02465328502056902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H13">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N13">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O13">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P13">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q13">
-        <v>2.675470772928</v>
+        <v>10.53680926486611</v>
       </c>
       <c r="R13">
-        <v>24.07923695635199</v>
+        <v>94.831283383795</v>
       </c>
       <c r="S13">
-        <v>0.0005559397548672991</v>
+        <v>0.001464374447612092</v>
       </c>
       <c r="T13">
-        <v>0.0005559397548672991</v>
+        <v>0.001464374447612092</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H14">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N14">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q14">
-        <v>873.1402788080211</v>
+        <v>1266.657752596119</v>
       </c>
       <c r="R14">
-        <v>7858.262509272189</v>
+        <v>11399.91977336507</v>
       </c>
       <c r="S14">
-        <v>0.1814310204682469</v>
+        <v>0.1760363313167637</v>
       </c>
       <c r="T14">
-        <v>0.1814310204682469</v>
+        <v>0.1760363313167637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H15">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.185244</v>
       </c>
       <c r="O15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q15">
-        <v>155.259760770756</v>
+        <v>98.85611688685199</v>
       </c>
       <c r="R15">
-        <v>1397.337846936804</v>
+        <v>889.705051981668</v>
       </c>
       <c r="S15">
-        <v>0.03226163941577561</v>
+        <v>0.01373872943130472</v>
       </c>
       <c r="T15">
-        <v>0.03226163941577561</v>
+        <v>0.01373872943130472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H16">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N16">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q16">
-        <v>385.3545991101159</v>
+        <v>185.8201797483287</v>
       </c>
       <c r="R16">
-        <v>3468.191391991043</v>
+        <v>1672.381617734958</v>
       </c>
       <c r="S16">
-        <v>0.08007336261491259</v>
+        <v>0.02582473652450575</v>
       </c>
       <c r="T16">
-        <v>0.08007336261491257</v>
+        <v>0.02582473652450576</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H17">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N17">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O17">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P17">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q17">
-        <v>4.316816838326889</v>
+        <v>11.03748741180367</v>
       </c>
       <c r="R17">
-        <v>38.851351544942</v>
+        <v>99.33738670623302</v>
       </c>
       <c r="S17">
-        <v>0.0008969973132167959</v>
+        <v>0.001533957208998677</v>
       </c>
       <c r="T17">
-        <v>0.0008969973132167958</v>
+        <v>0.001533957208998677</v>
       </c>
     </row>
   </sheetData>
